--- a/330BI/_docs/OpenIMU330BI_Pin_Definition.xlsx
+++ b/330BI/_docs/OpenIMU330BI_Pin_Definition.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="OpenRTK330LI Pin define" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenIMI330BI Pin definitions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SWDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SYNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Not used</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OpenIMU330BI Pin Define</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenIMU330BI module top view of package</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,72 +326,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Receive debug data from debug UART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transmit debug data to debug UART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive IMU data from user UART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transmit IMU data to user UART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reset signal input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SPI slave mode, CS signal of SPI </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI slave mode, MOSI signal of SPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI slave mode, MISO signal of SPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI slave mode, Clock signal of SPI </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data IO of SWD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1PPS signal from GNSS module </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Receive commands from user to IMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive debug data from user to IMU </t>
+  </si>
+  <si>
+    <t>Transmit debug data from IMU to user</t>
+  </si>
+  <si>
+    <t>Transmit IMU data to user</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMU boot mode control </t>
+  </si>
+  <si>
+    <t>PPS/SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync signal from external device or 1PPS signal from GNSS module </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I/O</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenIMU330BI Pin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Definitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> slave mode, CS signal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> slave mode, MOSI signal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> slave mode, MISO signal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SPI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> slave mode, Clock signal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>I/O</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -412,7 +524,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -420,10 +536,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,47 +695,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -691,7 +817,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,667 +1105,667 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="77.85546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D44" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="D45" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
